--- a/beds on hospitals.xlsx
+++ b/beds on hospitals.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="314">
   <si>
     <t>Hospital beds (per 10 000 population)</t>
   </si>
@@ -181,9 +181,6 @@
     <t>Bhutan</t>
   </si>
   <si>
-    <t>Bolivia (Plurinational State of)</t>
-  </si>
-  <si>
     <t>12.9</t>
   </si>
   <si>
@@ -370,9 +367,6 @@
     <t>Czechia</t>
   </si>
   <si>
-    <t>Democratic People's Republic of Korea</t>
-  </si>
-  <si>
     <t>143.0</t>
   </si>
   <si>
@@ -541,9 +535,6 @@
     <t>8.3</t>
   </si>
   <si>
-    <t>Iran (Islamic Republic of)</t>
-  </si>
-  <si>
     <t>13.8</t>
   </si>
   <si>
@@ -778,18 +769,9 @@
     <t>Qatar</t>
   </si>
   <si>
-    <t>Republic of Korea</t>
-  </si>
-  <si>
     <t>124.3</t>
   </si>
   <si>
-    <t>Republic of Moldova</t>
-  </si>
-  <si>
-    <t>Republic of North Macedonia</t>
-  </si>
-  <si>
     <t>42.8</t>
   </si>
   <si>
@@ -877,9 +859,6 @@
     <t>41.5</t>
   </si>
   <si>
-    <t>Sudan</t>
-  </si>
-  <si>
     <t>7.4</t>
   </si>
   <si>
@@ -946,9 +925,6 @@
     <t>Uzbekistan</t>
   </si>
   <si>
-    <t>Venezuela (Bolivarian Republic of)</t>
-  </si>
-  <si>
     <t>Viet Nam</t>
   </si>
   <si>
@@ -962,13 +938,43 @@
   </si>
   <si>
     <t xml:space="preserve"> Country</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>North Korea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
+    <t>South Sudan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1136,6 +1142,19 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1523,20 +1542,23 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1900,19 +1922,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B179"/>
+  <dimension ref="A1:D179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A154" sqref="A154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1920,7 +1942,7 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1928,7 +1950,7 @@
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1936,7 +1958,7 @@
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1944,7 +1966,7 @@
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1952,7 +1974,7 @@
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1960,7 +1982,7 @@
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1968,7 +1990,7 @@
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1976,7 +1998,7 @@
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1984,7 +2006,7 @@
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1992,7 +2014,7 @@
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2000,7 +2022,7 @@
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2008,7 +2030,7 @@
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2016,7 +2038,7 @@
       <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2024,7 +2046,7 @@
       <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2032,7 +2054,7 @@
       <c r="A16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2040,7 +2062,7 @@
       <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2048,7 +2070,7 @@
       <c r="A18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2056,7 +2078,7 @@
       <c r="A19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2064,1279 +2086,1285 @@
       <c r="A20" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="55.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="55.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="42" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>64</v>
+        <v>79</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="42" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>70</v>
+        <v>85</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>53</v>
+        <v>99</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>70</v>
+        <v>102</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>56</v>
+        <v>110</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="55.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
+    </row>
+    <row r="47" spans="1:2" ht="55.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B47" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" ht="55.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
+      <c r="B48" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+      <c r="B49" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
+    <row r="51" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+      <c r="D51" s="4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B52" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
+    <row r="53" spans="1:4" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B53" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
+      <c r="B54" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
+      <c r="B55" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
+      <c r="B56" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
+    </row>
+    <row r="57" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B57" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
+      <c r="B58" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B58" s="3" t="s">
+    </row>
+    <row r="59" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
+      <c r="B59" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
+      <c r="B60" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B62" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>71</v>
+        <v>147</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>146</v>
+      <c r="A67" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>112</v>
+        <v>149</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B69" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B70" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>84</v>
+        <v>152</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>94</v>
+        <v>153</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B76" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B77" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B78" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="55.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>122</v>
+    <row r="79" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>102</v>
+        <v>170</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B83" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>156</v>
+        <v>180</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>141</v>
+        <v>185</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>120</v>
+        <v>186</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>90</v>
+        <v>189</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="55.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>79</v>
+        <v>193</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>106</v>
+        <v>194</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>177</v>
+        <v>195</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>78</v>
+        <v>198</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B96" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>182</v>
+        <v>200</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>142</v>
+        <v>201</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>135</v>
+        <v>204</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>78</v>
+        <v>205</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>70</v>
+        <v>215</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>56</v>
+        <v>216</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>169</v>
+        <v>217</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>148</v>
+        <v>218</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>118</v>
+        <v>219</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>84</v>
+        <v>221</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>73</v>
+        <v>223</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B113" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>229</v>
+        <v>225</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B115" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>57</v>
+        <v>228</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>176</v>
+        <v>229</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B119" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B120" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>187</v>
+        <v>236</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>161</v>
+        <v>238</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>62</v>
+        <v>239</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>170</v>
+        <v>241</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>95</v>
+        <v>242</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>168</v>
+        <v>243</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B128" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>199</v>
+        <v>245</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>101</v>
+        <v>246</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" ht="42" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B132" s="3" t="s">
+      <c r="A131" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="42" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>254</v>
+    <row r="133" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>257</v>
+        <v>250</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>259</v>
+        <v>252</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>99</v>
+        <v>254</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>78</v>
+        <v>255</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>263</v>
+        <v>256</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>84</v>
+        <v>258</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="42" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B140" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>243</v>
+        <v>260</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B142" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B142" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>108</v>
+        <v>262</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B144" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B144" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B145" s="3" t="s">
-        <v>70</v>
+        <v>264</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>272</v>
+        <v>265</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>274</v>
+        <v>267</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>276</v>
+        <v>269</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>120</v>
+        <v>271</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>225</v>
+        <v>272</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>193</v>
+        <v>273</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>175</v>
+        <v>274</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B153" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B154" s="3" t="s">
-        <v>284</v>
+        <v>275</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>200</v>
+        <v>278</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>89</v>
+        <v>279</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B157" s="3" t="s">
-        <v>255</v>
+        <v>280</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="42" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>120</v>
+        <v>281</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>217</v>
+        <v>282</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B160" s="3" t="s">
-        <v>75</v>
+        <v>283</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B161" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B161" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B162" s="3" t="s">
-        <v>73</v>
+        <v>285</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="42" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B163" s="3" t="s">
-        <v>82</v>
+        <v>286</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>240</v>
+        <v>287</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B165" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B165" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B166" s="3" t="s">
-        <v>297</v>
+        <v>289</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B167" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B167" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B168" s="3" t="s">
-        <v>139</v>
+        <v>292</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="42" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B169" s="3" t="s">
-        <v>172</v>
+        <v>293</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="83.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B170" s="3" t="s">
-        <v>66</v>
+        <v>294</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="55.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B171" s="3" t="s">
-        <v>73</v>
+        <v>295</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="42" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="B172" s="3" t="s">
-        <v>165</v>
+        <v>296</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B173" s="3" t="s">
-        <v>63</v>
+        <v>297</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B174" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" ht="55.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B175" s="3" t="s">
-        <v>225</v>
+        <v>298</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="B176" s="3" t="s">
-        <v>181</v>
+        <v>299</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B177" s="3" t="s">
-        <v>158</v>
+        <v>300</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B178" s="3" t="s">
-        <v>137</v>
+        <v>301</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B179" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B179" s="2" t="s">
         <v>12</v>
       </c>
     </row>
